--- a/InputData/elec/SES/Seasonal Electricity Storage.xlsx
+++ b/InputData/elec/SES/Seasonal Electricity Storage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\CA\elec\SES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{90D11C65-6815-4B5B-B42F-F15853271B5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD7318E9-942D-4C53-90E6-4C3C8DCB397A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="975" windowWidth="14520" windowHeight="17025" firstSheet="1" activeTab="3" xr2:uid="{78AD1A57-EE8B-429E-82B5-7F18B2E9410A}"/>
+    <workbookView xWindow="695" yWindow="695" windowWidth="14400" windowHeight="7290" firstSheet="1" activeTab="3" xr2:uid="{78AD1A57-EE8B-429E-82B5-7F18B2E9410A}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -642,13 +642,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
-    <col min="2" max="2" width="65.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.40625" customWidth="1"/>
+    <col min="2" max="2" width="65.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -656,20 +656,20 @@
         <v>46</v>
       </c>
       <c r="C1" s="9">
-        <v>45194</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>45237</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -677,164 +677,164 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.75">
       <c r="B6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.75">
       <c r="B7" s="3">
         <v>2023</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.75">
       <c r="B8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.75">
       <c r="B9" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.75">
       <c r="B10" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.75">
       <c r="B12" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.75">
       <c r="B13" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.75">
       <c r="B14" s="3">
         <v>2019</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.75">
       <c r="B15" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.75">
       <c r="B16" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.75">
       <c r="B17" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.75">
       <c r="B19" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.75">
       <c r="B20" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.75">
       <c r="B21" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.75">
       <c r="B22" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.75">
       <c r="B23" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.75">
       <c r="B24" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A26" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A27" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A28" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A29" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A31" s="7" t="s">
         <v>32</v>
       </c>
       <c r="B31" s="8"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A32" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A34" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A35" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A37" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A38" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A40" s="7" t="s">
         <v>33</v>
       </c>
       <c r="B40" s="8"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A41" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A43" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A44" t="s">
         <v>8</v>
       </c>
@@ -856,9 +856,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -866,12 +866,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A3" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -893,12 +893,12 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="40.5703125" customWidth="1"/>
+    <col min="1" max="1" width="40.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -993,7 +993,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1133,13 +1133,13 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="40.5703125" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="40.54296875" customWidth="1"/>
+    <col min="2" max="2" width="18.40625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
@@ -1147,7 +1147,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1169,13 +1169,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="40.5703125" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="40.54296875" customWidth="1"/>
+    <col min="2" max="2" width="18.40625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A1" s="2" t="s">
         <v>16</v>
       </c>
@@ -1183,7 +1183,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>17</v>
       </c>

--- a/InputData/elec/SES/Seasonal Electricity Storage.xlsx
+++ b/InputData/elec/SES/Seasonal Electricity Storage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\CA\elec\SES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD7318E9-942D-4C53-90E6-4C3C8DCB397A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{65740FB3-85DC-41E8-B29B-E7449A70B132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="695" yWindow="695" windowWidth="14400" windowHeight="7290" firstSheet="1" activeTab="3" xr2:uid="{78AD1A57-EE8B-429E-82B5-7F18B2E9410A}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" firstSheet="1" activeTab="3" xr2:uid="{78AD1A57-EE8B-429E-82B5-7F18B2E9410A}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -642,13 +642,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.40625" customWidth="1"/>
-    <col min="2" max="2" width="65.7265625" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="65.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -656,20 +656,20 @@
         <v>46</v>
       </c>
       <c r="C1" s="9">
-        <v>45237</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.75">
+        <v>45294</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -677,164 +677,164 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" s="3">
         <v>2023</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <v>2019</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B23" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>32</v>
       </c>
       <c r="B31" s="8"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>33</v>
       </c>
       <c r="B40" s="8"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>8</v>
       </c>
@@ -856,9 +856,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -866,12 +866,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -893,12 +893,12 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.54296875" customWidth="1"/>
+    <col min="1" max="1" width="40.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -993,7 +993,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1133,13 +1133,13 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.54296875" customWidth="1"/>
-    <col min="2" max="2" width="18.40625" customWidth="1"/>
+    <col min="1" max="1" width="40.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
@@ -1147,7 +1147,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1169,13 +1169,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.54296875" customWidth="1"/>
-    <col min="2" max="2" width="18.40625" customWidth="1"/>
+    <col min="1" max="1" width="40.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>16</v>
       </c>
@@ -1183,7 +1183,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
